--- a/fone jbl.xlsx
+++ b/fone jbl.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedro/OneDrive - Insper - Institudo de Ensino e Pesquisa/CDados/Projeto 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedro/OneDrive - Insper - Institudo de Ensino e Pesquisa/INSPER/Projeto 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9325B8-14EB-E14E-82AB-EFA66285CB6D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C937D8E-AB71-6746-AFA9-EA4666755444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="362">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1236,6 +1236,9 @@
   </si>
   <si>
     <t>Classificacao</t>
+  </si>
+  <si>
+    <t>Verifica</t>
   </si>
 </sst>
 </file>
@@ -1639,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B302"/>
   <sheetViews>
-    <sheetView topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="B303" sqref="B303"/>
+    <sheetView topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="A295" sqref="A295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4066,23 +4069,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -4090,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>302</v>
       </c>
@@ -4098,7 +4104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>303</v>
       </c>
@@ -4106,7 +4112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>283</v>
       </c>
@@ -4114,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>304</v>
       </c>
@@ -4122,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>305</v>
       </c>
@@ -4130,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>306</v>
       </c>
@@ -4138,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>307</v>
       </c>
@@ -4146,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>308</v>
       </c>
@@ -4154,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>309</v>
       </c>
@@ -4162,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>310</v>
       </c>
@@ -4170,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>311</v>
       </c>
@@ -4178,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>312</v>
       </c>
@@ -4186,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>313</v>
       </c>
@@ -4194,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>314</v>
       </c>
